--- a/qradar-template.xlsx
+++ b/qradar-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiom.santos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Documents\DEV\Python\qradar-qid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC75CEE-6BC2-4E1C-BE4B-BA92BFB7A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CCBCD-A046-4F3A-A2B7-03D3629E7995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2DD3A2D9-C40A-4D9C-9006-194803CABA20}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{2DD3A2D9-C40A-4D9C-9006-194803CABA20}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -50,16 +50,16 @@
     <t>QidDescription</t>
   </si>
   <si>
-    <t>TestEventID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>TestEventCategory</t>
+    <t>Event category</t>
   </si>
   <si>
-    <t>This is a test qid</t>
+    <t>My event name</t>
   </si>
   <si>
-    <t>This is a qid description that you can fill with anything</t>
+    <t>My event description</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,14 +101,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,44 +125,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F6371D-529F-46B7-B157-95780A68A512}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,30 +495,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -563,6 +515,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="add094fb-889f-429c-ae29-e490a80ce16f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A191DC8596FFBA44A8B41E275F813DCD" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d007381e99add0abe42ba597c0f02292">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="add094fb-889f-429c-ae29-e490a80ce16f" xmlns:ns4="853af9c1-f245-4859-8f8d-b02793badbc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f913c8e78810ad845daadd60bee39f6a" ns3:_="" ns4:_="">
     <xsd:import namespace="add094fb-889f-429c-ae29-e490a80ce16f"/>
@@ -783,7 +743,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -792,15 +752,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="add094fb-889f-429c-ae29-e490a80ce16f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FB1D1C1-7E4F-4847-B7D1-36EE49A95342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="853af9c1-f245-4859-8f8d-b02793badbc7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="add094fb-889f-429c-ae29-e490a80ce16f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C474A0-6288-44F3-B53A-482C05A548D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -819,27 +788,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5EFBB7-DC15-4989-95B9-D8F7BFCAB715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FB1D1C1-7E4F-4847-B7D1-36EE49A95342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="853af9c1-f245-4859-8f8d-b02793badbc7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="add094fb-889f-429c-ae29-e490a80ce16f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>